--- a/Assignments/Assignment-1.xlsx
+++ b/Assignments/Assignment-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\IT Programs\Batch-02  Full Stack Developer\Batch-2 Share\Mar2024_Students\Released\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\IT Programs\Batch-02  Full Stack Developer\Batch-2 Share\Assignments\Released\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A27590-6CC6-4C8C-AEA5-6AE0346372E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8E35E-C78C-4303-ABFC-19E6DD26B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Topic and Resources</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Mandatory</t>
   </si>
   <si>
-    <t>Desired State</t>
+    <t>Hands on / Practical Lab 1</t>
   </si>
   <si>
     <t>You should install the required software</t>
@@ -57,22 +57,46 @@
     <t>Flowcharts</t>
   </si>
   <si>
+    <t xml:space="preserve">1. One check in into FlowCharts Repository </t>
+  </si>
+  <si>
     <t>https://www.visual-paradigm.com/tutorials/flowchart-tutorial/</t>
+  </si>
+  <si>
+    <t>2. One check in into Pseudocodes Repository</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/flowchart-tutorial-for-beginners/</t>
   </si>
   <si>
+    <t>Hands on / Practical Lab 2</t>
+  </si>
+  <si>
     <t>Pseudocodes</t>
+  </si>
+  <si>
+    <t>You should be able to add others into your repository as collaborators</t>
   </si>
   <si>
     <t>https://www.educative.io/answers/what-is-pseudocode</t>
   </si>
   <si>
+    <t>You should create the branch policies</t>
+  </si>
+  <si>
+    <t>You should create a feature branch, make all the changes and check-in into feature branch</t>
+  </si>
+  <si>
     <t>Learn to Learn - How to learn programming languages</t>
   </si>
   <si>
+    <t>You should be able to raise the PR, Review, and complete the PR</t>
+  </si>
+  <si>
     <t>https://www.coursera.org/in/articles/what-is-programming</t>
+  </si>
+  <si>
+    <t>This Lab should cover 1, 2, and 4 only</t>
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/what-is-pseudocode-a-complete-tutorial/</t>
@@ -123,65 +147,76 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B5394"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF073763"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -273,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -317,6 +352,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -338,6 +376,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,6 +392,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620000" cy="4400550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,7 +636,9 @@
   </sheetPr>
   <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -566,7 +646,7 @@
     <col min="3" max="3" width="93.88671875" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="71.5546875" customWidth="1"/>
+    <col min="6" max="6" width="94.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -696,7 +776,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
@@ -768,7 +848,9 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -794,11 +876,13 @@
       <c r="A8" s="3"/>
       <c r="B8" s="12"/>
       <c r="C8" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -824,7 +908,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="12"/>
       <c r="C9" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="1"/>
@@ -856,7 +940,9 @@
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -884,11 +970,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -913,12 +1001,14 @@
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="15" t="s">
-        <v>13</v>
+      <c r="C12" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -946,7 +1036,9 @@
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -974,11 +1066,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1003,12 +1097,14 @@
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="15" t="s">
-        <v>15</v>
+      <c r="C15" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1033,8 +1129,8 @@
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="15" t="s">
-        <v>16</v>
+      <c r="C16" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
@@ -1094,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
@@ -1123,8 +1219,8 @@
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="16" t="s">
-        <v>18</v>
+      <c r="C19" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="1"/>
@@ -1184,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="1"/>
@@ -1213,11 +1309,11 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="15" t="s">
-        <v>20</v>
+      <c r="C22" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="10"/>
@@ -1245,8 +1341,8 @@
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="15" t="s">
-        <v>22</v>
+      <c r="C23" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="1"/>
@@ -1275,8 +1371,8 @@
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="17" t="s">
-        <v>23</v>
+      <c r="C24" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="1"/>
@@ -1305,12 +1401,12 @@
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="18" t="s">
-        <v>24</v>
+      <c r="C25" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="19"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1338,7 +1434,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="9"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1366,11 +1462,11 @@
         <v>7</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1395,12 +1491,12 @@
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="18" t="s">
-        <v>26</v>
+      <c r="C28" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1424,11 +1520,11 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="9"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1452,11 +1548,11 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="9"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1480,11 +1576,11 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1508,11 +1604,11 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -28207,5 +28303,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/Assignments/Assignment-1.xlsx
+++ b/Assignments/Assignment-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\IT Programs\Batch-02  Full Stack Developer\Batch-2 Share\Assignments\Released\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\fs_ITMentoring_March2024\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8E35E-C78C-4303-ABFC-19E6DD26B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B033FB44-3D9B-4DF8-B525-727759203593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>aisadmin</author>
+  </authors>
+  <commentList>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{95D8AD33-25FD-41C3-931E-49804917196E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>aisadmin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+First Steps section</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Topic and Resources</t>
   </si>
@@ -105,9 +139,6 @@
     <t>Git for Windows</t>
   </si>
   <si>
-    <t>https://git-scm.com/docs/git</t>
-  </si>
-  <si>
     <t>VS Code</t>
   </si>
   <si>
@@ -123,20 +154,26 @@
     <t>https://www.youtube.com/watch?v=fnPhJHN0jTE</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=WPqXP_kLzpo</t>
+    <t>https://learn.microsoft.com/en-us/training/modules/introduction-to-github/</t>
   </si>
   <si>
-    <t>GitHub</t>
+    <t>https://git-scm.com/videos</t>
   </si>
   <si>
-    <t>https://learn.microsoft.com/en-us/training/modules/introduction-to-github/</t>
+    <t>Git and GitHub</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/training/modules/intro-to-git/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MaqVvXv6zrU&amp;t=1s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +237,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0563C1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -214,8 +251,34 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF073763"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -239,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -304,11 +367,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -358,27 +437,62 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,14 +744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
-  <dimension ref="A1:Z984"/>
+  <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -782,7 +896,9 @@
       <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
         <v>7</v>
@@ -878,7 +994,9 @@
       <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="10" t="s">
         <v>12</v>
@@ -910,7 +1028,9 @@
       <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
@@ -1004,7 +1124,9 @@
       <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="15" t="s">
         <v>18</v>
@@ -1036,7 +1158,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="19" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="1"/>
@@ -1100,7 +1222,9 @@
       <c r="C15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="10" t="s">
         <v>23</v>
@@ -1129,10 +1253,12 @@
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="10"/>
       <c r="G16" s="1"/>
@@ -1190,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
@@ -1219,10 +1345,12 @@
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="17" t="s">
-        <v>26</v>
+      <c r="C19" s="23" t="s">
+        <v>34</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="10"/>
       <c r="G19" s="1"/>
@@ -1249,8 +1377,12 @@
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="10"/>
       <c r="G20" s="1"/>
@@ -1276,12 +1408,8 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="12">
-        <v>6</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="9"/>
       <c r="E21" s="1"/>
       <c r="F21" s="10"/>
@@ -1308,13 +1436,13 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="16" t="s">
-        <v>28</v>
+      <c r="B22" s="12">
+        <v>6</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>29</v>
+      <c r="C22" s="11" t="s">
+        <v>25</v>
       </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
       <c r="F22" s="10"/>
       <c r="G22" s="1"/>
@@ -1341,10 +1469,12 @@
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="16" t="s">
-        <v>30</v>
+      <c r="C23" s="21" t="s">
+        <v>35</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="10"/>
       <c r="G23" s="1"/>
@@ -1370,11 +1500,13 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="18" t="s">
-        <v>31</v>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
+        <v>32</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="10"/>
       <c r="G24" s="1"/>
@@ -1399,14 +1531,12 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="9"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1429,12 +1559,16 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="28">
+        <v>7</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="29"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="21"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1457,16 +1591,16 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="12">
-        <v>7</v>
+      <c r="A27" s="24"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="32" t="s">
+        <v>27</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>33</v>
+      <c r="D27" s="35" t="s">
+        <v>28</v>
       </c>
-      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="21"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1489,14 +1623,16 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="19" t="s">
-        <v>34</v>
+      <c r="A28" s="24"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="32" t="s">
+        <v>29</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="35" t="s">
+        <v>28</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="21"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1519,12 +1655,16 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>28</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="21"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1548,11 +1688,11 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="21"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1576,11 +1716,11 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1604,11 +1744,11 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="21"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1632,11 +1772,11 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -28286,6 +28426,34 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
+    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A985" s="1"/>
+      <c r="B985" s="1"/>
+      <c r="C985" s="1"/>
+      <c r="D985" s="1"/>
+      <c r="E985" s="1"/>
+      <c r="F985" s="1"/>
+      <c r="G985" s="1"/>
+      <c r="H985" s="1"/>
+      <c r="I985" s="1"/>
+      <c r="J985" s="1"/>
+      <c r="K985" s="1"/>
+      <c r="L985" s="1"/>
+      <c r="M985" s="1"/>
+      <c r="N985" s="1"/>
+      <c r="O985" s="1"/>
+      <c r="P985" s="1"/>
+      <c r="Q985" s="1"/>
+      <c r="R985" s="1"/>
+      <c r="S985" s="1"/>
+      <c r="T985" s="1"/>
+      <c r="U985" s="1"/>
+      <c r="V985" s="1"/>
+      <c r="W985" s="1"/>
+      <c r="X985" s="1"/>
+      <c r="Y985" s="1"/>
+      <c r="Z985" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -28294,15 +28462,16 @@
     <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="C15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C24" r:id="rId11" xr:uid="{A6DB6E86-8030-47AF-88A5-711B38C37B6E}"/>
+    <hyperlink ref="C23" r:id="rId12" xr:uid="{2B94A332-5312-4C5A-90E3-4F8DF839EECB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>